--- a/第4章excel/分类汇总与合并计算/分类汇总综合练习.xlsx
+++ b/第4章excel/分类汇总与合并计算/分类汇总综合练习.xlsx
@@ -699,7 +699,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -751,31 +751,31 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A2" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D2" s="5">
-        <v>75.5</v>
+        <v>66.5</v>
       </c>
       <c r="E2" s="4">
-        <v>62.5</v>
+        <v>92.5</v>
       </c>
       <c r="F2" s="4">
-        <v>87</v>
+        <v>95.5</v>
       </c>
       <c r="G2" s="4">
-        <v>94.5</v>
+        <v>98</v>
       </c>
       <c r="H2" s="4">
-        <v>78</v>
+        <v>86.5</v>
       </c>
       <c r="I2" s="4">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="7"/>
@@ -790,31 +790,31 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A3" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D3" s="5">
-        <v>79.5</v>
+        <v>73.5</v>
       </c>
       <c r="E3" s="4">
-        <v>98.5</v>
+        <v>91.5</v>
       </c>
       <c r="F3" s="4">
-        <v>68</v>
+        <v>64.5</v>
       </c>
       <c r="G3" s="4">
-        <v>100</v>
+        <v>93.5</v>
       </c>
       <c r="H3" s="4">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="I3" s="4">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="J3" s="6"/>
       <c r="K3" s="7"/>
@@ -827,31 +827,31 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A4" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D4" s="5">
-        <v>82.5</v>
+        <v>75.5</v>
       </c>
       <c r="E4" s="4">
-        <v>63.5</v>
+        <v>62.5</v>
       </c>
       <c r="F4" s="4">
-        <v>90.5</v>
+        <v>87</v>
       </c>
       <c r="G4" s="4">
-        <v>97</v>
+        <v>94.5</v>
       </c>
       <c r="H4" s="4">
-        <v>65.5</v>
+        <v>78</v>
       </c>
       <c r="I4" s="4">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="J4" s="6"/>
       <c r="K4" s="7"/>
@@ -864,31 +864,31 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A5" s="4">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="5">
-        <v>93.5</v>
+        <v>79.5</v>
       </c>
       <c r="E5" s="4">
-        <v>85.5</v>
+        <v>98.5</v>
       </c>
       <c r="F5" s="4">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="H5" s="4">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="I5" s="4">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="J5" s="6"/>
       <c r="K5" s="7"/>
@@ -901,31 +901,31 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A6" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="5">
-        <v>97.5</v>
+        <v>82.5</v>
       </c>
       <c r="E6" s="4">
-        <v>76</v>
+        <v>63.5</v>
       </c>
       <c r="F6" s="4">
-        <v>72</v>
+        <v>90.5</v>
       </c>
       <c r="G6" s="4">
-        <v>92.5</v>
+        <v>97</v>
       </c>
       <c r="H6" s="4">
-        <v>84.5</v>
+        <v>65.5</v>
       </c>
       <c r="I6" s="4">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="7"/>
@@ -938,31 +938,31 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A7" s="4">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D7" s="5">
-        <v>56</v>
+        <v>82.5</v>
       </c>
       <c r="E7" s="4">
-        <v>77.5</v>
+        <v>78</v>
       </c>
       <c r="F7" s="4">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G7" s="4">
-        <v>83</v>
+        <v>96.5</v>
       </c>
       <c r="H7" s="4">
-        <v>74.5</v>
+        <v>96.5</v>
       </c>
       <c r="I7" s="4">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="J7" s="6"/>
       <c r="K7" s="7"/>
@@ -975,31 +975,31 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A8" s="4">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D8" s="5">
-        <v>58.5</v>
+        <v>84.5</v>
       </c>
       <c r="E8" s="4">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="F8" s="4">
-        <v>88.5</v>
+        <v>99.5</v>
       </c>
       <c r="G8" s="4">
-        <v>97</v>
+        <v>89.5</v>
       </c>
       <c r="H8" s="4">
-        <v>72</v>
+        <v>84.5</v>
       </c>
       <c r="I8" s="4">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="J8" s="6"/>
       <c r="K8" s="7"/>
@@ -1012,31 +1012,31 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A9" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D9" s="5">
-        <v>63</v>
+        <v>87.5</v>
       </c>
       <c r="E9" s="4">
-        <v>99.5</v>
+        <v>63.5</v>
       </c>
       <c r="F9" s="4">
+        <v>67.5</v>
+      </c>
+      <c r="G9" s="4">
+        <v>98.5</v>
+      </c>
+      <c r="H9" s="4">
         <v>78.5</v>
       </c>
-      <c r="G9" s="4">
-        <v>63.5</v>
-      </c>
-      <c r="H9" s="4">
-        <v>79.5</v>
-      </c>
       <c r="I9" s="4">
-        <v>65.5</v>
+        <v>94</v>
       </c>
       <c r="J9" s="6"/>
       <c r="K9" s="7"/>
@@ -1049,28 +1049,28 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A10" s="4">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D10" s="5">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="E10" s="4">
-        <v>72.5</v>
+        <v>82.5</v>
       </c>
       <c r="F10" s="4">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="G10" s="4">
-        <v>94</v>
+        <v>75.5</v>
       </c>
       <c r="H10" s="4">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="I10" s="4">
         <v>90</v>
@@ -1086,31 +1086,31 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A11" s="4">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D11" s="5">
-        <v>75.5</v>
+        <v>92</v>
       </c>
       <c r="E11" s="4">
-        <v>72.5</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4">
+        <v>97</v>
+      </c>
+      <c r="G11" s="4">
+        <v>93</v>
+      </c>
+      <c r="H11" s="4">
         <v>75</v>
       </c>
-      <c r="G11" s="4">
-        <v>92</v>
-      </c>
-      <c r="H11" s="4">
-        <v>86</v>
-      </c>
       <c r="I11" s="4">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="7"/>
@@ -1123,31 +1123,31 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A12" s="4">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D12" s="5">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="E12" s="4">
-        <v>60.5</v>
+        <v>71.5</v>
       </c>
       <c r="F12" s="4">
-        <v>66.5</v>
+        <v>92</v>
       </c>
       <c r="G12" s="4">
-        <v>84</v>
+        <v>96.5</v>
       </c>
       <c r="H12" s="4">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="I12" s="4">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="7"/>
@@ -1160,31 +1160,31 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A13" s="4">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="5">
-        <v>84.5</v>
+        <v>93.5</v>
       </c>
       <c r="E13" s="4">
-        <v>78.5</v>
+        <v>85.5</v>
       </c>
       <c r="F13" s="4">
-        <v>87.5</v>
+        <v>77</v>
       </c>
       <c r="G13" s="4">
-        <v>64.5</v>
+        <v>81</v>
       </c>
       <c r="H13" s="4">
-        <v>72</v>
+        <v>95</v>
       </c>
       <c r="I13" s="4">
-        <v>76.5</v>
+        <v>78</v>
       </c>
       <c r="J13" s="6"/>
       <c r="K13" s="7"/>
@@ -1197,31 +1197,31 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A14" s="4">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D14" s="5">
-        <v>92.5</v>
+        <v>96</v>
       </c>
       <c r="E14" s="4">
-        <v>93.5</v>
+        <v>72.5</v>
       </c>
       <c r="F14" s="4">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G14" s="4">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="H14" s="4">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="I14" s="4">
-        <v>84</v>
+        <v>87.5</v>
       </c>
       <c r="J14" s="6"/>
       <c r="K14" s="7"/>
@@ -1234,31 +1234,31 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A15" s="4">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D15" s="5">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="E15" s="4">
-        <v>75.5</v>
+        <v>86.5</v>
       </c>
       <c r="F15" s="4">
-        <v>73</v>
+        <v>90.5</v>
       </c>
       <c r="G15" s="4">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="H15" s="4">
-        <v>66</v>
+        <v>99.5</v>
       </c>
       <c r="I15" s="4">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J15" s="6"/>
       <c r="K15" s="7"/>
@@ -1271,31 +1271,31 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A16" s="4">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5">
-        <v>62.5</v>
+        <v>97.5</v>
       </c>
       <c r="E16" s="4">
-        <v>57.5</v>
+        <v>76</v>
       </c>
       <c r="F16" s="4">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="G16" s="4">
-        <v>59</v>
+        <v>92.5</v>
       </c>
       <c r="H16" s="4">
-        <v>79</v>
+        <v>84.5</v>
       </c>
       <c r="I16" s="4">
-        <v>61.5</v>
+        <v>78</v>
       </c>
       <c r="J16" s="6"/>
       <c r="K16" s="7"/>
@@ -1308,31 +1308,31 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="4">
-        <v>35</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="5">
-        <v>71.5</v>
+        <v>56</v>
       </c>
       <c r="E17" s="4">
-        <v>61.5</v>
+        <v>77.5</v>
       </c>
       <c r="F17" s="4">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="G17" s="4">
-        <v>57.5</v>
+        <v>83</v>
       </c>
       <c r="H17" s="4">
-        <v>57</v>
+        <v>74.5</v>
       </c>
       <c r="I17" s="4">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="7"/>
@@ -1345,31 +1345,31 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="4">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5">
-        <v>71.5</v>
+        <v>58.5</v>
       </c>
       <c r="E18" s="4">
-        <v>59.5</v>
+        <v>90</v>
       </c>
       <c r="F18" s="4">
-        <v>88</v>
+        <v>88.5</v>
       </c>
       <c r="G18" s="4">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="H18" s="4">
-        <v>88</v>
+        <v>72</v>
       </c>
       <c r="I18" s="4">
-        <v>60.5</v>
+        <v>65</v>
       </c>
       <c r="J18" s="6"/>
       <c r="K18" s="7"/>
@@ -1382,31 +1382,31 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="4">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5">
-        <v>85.5</v>
+        <v>63</v>
       </c>
       <c r="E19" s="4">
-        <v>64.5</v>
+        <v>99.5</v>
       </c>
       <c r="F19" s="4">
-        <v>74</v>
+        <v>78.5</v>
       </c>
       <c r="G19" s="4">
-        <v>78.5</v>
+        <v>63.5</v>
       </c>
       <c r="H19" s="4">
-        <v>64</v>
+        <v>79.5</v>
       </c>
       <c r="I19" s="4">
-        <v>76.5</v>
+        <v>65.5</v>
       </c>
       <c r="J19" s="6"/>
       <c r="K19" s="7"/>
@@ -1419,31 +1419,31 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="4">
-        <v>44</v>
+        <v>19</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="D20" s="5">
+        <v>69</v>
+      </c>
+      <c r="E20" s="4">
+        <v>89.5</v>
+      </c>
+      <c r="F20" s="4">
+        <v>92.5</v>
+      </c>
+      <c r="G20" s="4">
+        <v>73</v>
+      </c>
+      <c r="H20" s="4">
+        <v>58.5</v>
+      </c>
+      <c r="I20" s="4">
         <v>96.5</v>
-      </c>
-      <c r="E20" s="4">
-        <v>74.5</v>
-      </c>
-      <c r="F20" s="4">
-        <v>63</v>
-      </c>
-      <c r="G20" s="4">
-        <v>66</v>
-      </c>
-      <c r="H20" s="4">
-        <v>71</v>
-      </c>
-      <c r="I20" s="4">
-        <v>69</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="7"/>
@@ -1456,31 +1456,31 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D21" s="5">
-        <v>66.5</v>
+        <v>72.5</v>
       </c>
       <c r="E21" s="4">
-        <v>92.5</v>
+        <v>74.5</v>
       </c>
       <c r="F21" s="4">
-        <v>95.5</v>
+        <v>60.5</v>
       </c>
       <c r="G21" s="4">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H21" s="4">
-        <v>86.5</v>
+        <v>77</v>
       </c>
       <c r="I21" s="4">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="J21" s="6"/>
       <c r="K21" s="7"/>
@@ -1493,31 +1493,31 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="4">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D22" s="5">
-        <v>73.5</v>
+        <v>74</v>
       </c>
       <c r="E22" s="4">
-        <v>91.5</v>
+        <v>72.5</v>
       </c>
       <c r="F22" s="4">
-        <v>64.5</v>
+        <v>67</v>
       </c>
       <c r="G22" s="4">
-        <v>93.5</v>
+        <v>94</v>
       </c>
       <c r="H22" s="4">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I22" s="4">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="J22" s="6"/>
       <c r="K22" s="7"/>
@@ -1530,31 +1530,31 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="4">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5">
-        <v>82.5</v>
+        <v>75.5</v>
       </c>
       <c r="E23" s="4">
-        <v>78</v>
+        <v>72.5</v>
       </c>
       <c r="F23" s="4">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G23" s="4">
-        <v>96.5</v>
+        <v>92</v>
       </c>
       <c r="H23" s="4">
-        <v>96.5</v>
+        <v>86</v>
       </c>
       <c r="I23" s="4">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="7"/>
@@ -1567,31 +1567,31 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="4">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D24" s="5">
-        <v>84.5</v>
+        <v>76.5</v>
       </c>
       <c r="E24" s="4">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F24" s="4">
-        <v>99.5</v>
+        <v>64</v>
       </c>
       <c r="G24" s="4">
-        <v>89.5</v>
+        <v>75</v>
       </c>
       <c r="H24" s="4">
-        <v>84.5</v>
+        <v>87</v>
       </c>
       <c r="I24" s="4">
-        <v>58</v>
+        <v>78</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="7"/>
@@ -1604,31 +1604,31 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="4">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D25" s="5">
-        <v>87.5</v>
+        <v>77</v>
       </c>
       <c r="E25" s="4">
-        <v>63.5</v>
+        <v>60.5</v>
       </c>
       <c r="F25" s="4">
-        <v>67.5</v>
+        <v>66.5</v>
       </c>
       <c r="G25" s="4">
-        <v>98.5</v>
+        <v>84</v>
       </c>
       <c r="H25" s="4">
-        <v>78.5</v>
+        <v>98</v>
       </c>
       <c r="I25" s="4">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="J25" s="6"/>
       <c r="K25" s="7"/>
@@ -1641,31 +1641,31 @@
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="4">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D26" s="5">
-        <v>88</v>
+        <v>80.5</v>
       </c>
       <c r="E26" s="4">
-        <v>82.5</v>
+        <v>96</v>
       </c>
       <c r="F26" s="4">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="G26" s="4">
-        <v>75.5</v>
+        <v>66</v>
       </c>
       <c r="H26" s="4">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="I26" s="4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="J26" s="6"/>
       <c r="K26" s="7"/>
@@ -1678,31 +1678,31 @@
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="4">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D27" s="5">
-        <v>92</v>
+        <v>83.5</v>
       </c>
       <c r="E27" s="4">
-        <v>64</v>
+        <v>78.5</v>
       </c>
       <c r="F27" s="4">
-        <v>97</v>
+        <v>70.5</v>
       </c>
       <c r="G27" s="4">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="H27" s="4">
-        <v>75</v>
+        <v>68.5</v>
       </c>
       <c r="I27" s="4">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="J27" s="6"/>
       <c r="K27" s="7"/>
@@ -1715,31 +1715,31 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="4">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D28" s="5">
-        <v>93</v>
+        <v>84.5</v>
       </c>
       <c r="E28" s="4">
-        <v>71.5</v>
+        <v>78.5</v>
       </c>
       <c r="F28" s="4">
-        <v>92</v>
+        <v>87.5</v>
       </c>
       <c r="G28" s="4">
-        <v>96.5</v>
+        <v>64.5</v>
       </c>
       <c r="H28" s="4">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="I28" s="4">
-        <v>61</v>
+        <v>76.5</v>
       </c>
       <c r="J28" s="6"/>
       <c r="K28" s="7"/>
@@ -1752,31 +1752,31 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="4">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D29" s="5">
-        <v>96</v>
+        <v>92.5</v>
       </c>
       <c r="E29" s="4">
-        <v>72.5</v>
+        <v>93.5</v>
       </c>
       <c r="F29" s="4">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="G29" s="4">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="H29" s="4">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="I29" s="4">
-        <v>87.5</v>
+        <v>84</v>
       </c>
       <c r="J29" s="6"/>
       <c r="K29" s="7"/>
@@ -1789,31 +1789,31 @@
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="4">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C30" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D30" s="5">
-        <v>96.5</v>
+        <v>95</v>
       </c>
       <c r="E30" s="4">
-        <v>86.5</v>
+        <v>95</v>
       </c>
       <c r="F30" s="4">
-        <v>90.5</v>
+        <v>70</v>
       </c>
       <c r="G30" s="4">
-        <v>94</v>
+        <v>89.5</v>
       </c>
       <c r="H30" s="4">
-        <v>99.5</v>
+        <v>61.5</v>
       </c>
       <c r="I30" s="4">
-        <v>70</v>
+        <v>61.5</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="7"/>
@@ -1826,31 +1826,31 @@
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="4">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D31" s="5">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E31" s="4">
-        <v>89.5</v>
+        <v>75.5</v>
       </c>
       <c r="F31" s="4">
-        <v>92.5</v>
+        <v>73</v>
       </c>
       <c r="G31" s="4">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="H31" s="4">
-        <v>58.5</v>
+        <v>66</v>
       </c>
       <c r="I31" s="4">
-        <v>96.5</v>
+        <v>76</v>
       </c>
       <c r="J31" s="6"/>
       <c r="K31" s="7"/>
@@ -1863,31 +1863,31 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="4">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C32" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D32" s="5">
-        <v>72.5</v>
+        <v>62.5</v>
       </c>
       <c r="E32" s="4">
-        <v>74.5</v>
+        <v>76</v>
       </c>
       <c r="F32" s="4">
-        <v>60.5</v>
+        <v>57</v>
       </c>
       <c r="G32" s="4">
-        <v>87</v>
+        <v>67.5</v>
       </c>
       <c r="H32" s="4">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="I32" s="4">
-        <v>78</v>
+        <v>84.5</v>
       </c>
       <c r="J32" s="6"/>
       <c r="K32" s="7"/>
@@ -1900,31 +1900,31 @@
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="4">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D33" s="5">
-        <v>76.5</v>
+        <v>62.5</v>
       </c>
       <c r="E33" s="4">
-        <v>70</v>
+        <v>57.5</v>
       </c>
       <c r="F33" s="4">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="G33" s="4">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="H33" s="4">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="I33" s="4">
-        <v>78</v>
+        <v>61.5</v>
       </c>
       <c r="J33" s="6"/>
       <c r="K33" s="7"/>
@@ -1937,31 +1937,31 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="4">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C34" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D34" s="5">
-        <v>80.5</v>
+        <v>63.5</v>
       </c>
       <c r="E34" s="4">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="F34" s="4">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="G34" s="4">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="H34" s="4">
+        <v>75.5</v>
+      </c>
+      <c r="I34" s="4">
         <v>61</v>
-      </c>
-      <c r="I34" s="4">
-        <v>85</v>
       </c>
       <c r="J34" s="6"/>
       <c r="K34" s="7"/>
@@ -1974,31 +1974,31 @@
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="4">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D35" s="5">
-        <v>83.5</v>
+        <v>68</v>
       </c>
       <c r="E35" s="4">
-        <v>78.5</v>
+        <v>97.5</v>
       </c>
       <c r="F35" s="4">
-        <v>70.5</v>
+        <v>61</v>
       </c>
       <c r="G35" s="4">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="H35" s="4">
-        <v>68.5</v>
+        <v>60</v>
       </c>
       <c r="I35" s="4">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="7"/>
@@ -2011,31 +2011,31 @@
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="4">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D36" s="5">
-        <v>95</v>
+        <v>71.5</v>
       </c>
       <c r="E36" s="4">
-        <v>95</v>
+        <v>61.5</v>
       </c>
       <c r="F36" s="4">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="G36" s="4">
-        <v>89.5</v>
+        <v>57.5</v>
       </c>
       <c r="H36" s="4">
-        <v>61.5</v>
+        <v>57</v>
       </c>
       <c r="I36" s="4">
-        <v>61.5</v>
+        <v>85</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="7"/>
@@ -2048,31 +2048,31 @@
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="4">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D37" s="5">
-        <v>62.5</v>
+        <v>71.5</v>
       </c>
       <c r="E37" s="4">
-        <v>76</v>
+        <v>59.5</v>
       </c>
       <c r="F37" s="4">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="G37" s="4">
-        <v>67.5</v>
+        <v>63</v>
       </c>
       <c r="H37" s="4">
         <v>88</v>
       </c>
       <c r="I37" s="4">
-        <v>84.5</v>
+        <v>60.5</v>
       </c>
       <c r="J37" s="6"/>
       <c r="K37" s="7"/>
@@ -2085,31 +2085,31 @@
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="4">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C38" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D38" s="5">
-        <v>63.5</v>
+        <v>75</v>
       </c>
       <c r="E38" s="4">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" s="4">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="G38" s="4">
-        <v>95</v>
+        <v>60.5</v>
       </c>
       <c r="H38" s="4">
-        <v>75.5</v>
+        <v>60</v>
       </c>
       <c r="I38" s="4">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="J38" s="6"/>
       <c r="K38" s="7"/>
@@ -2122,31 +2122,31 @@
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="4">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D39" s="5">
-        <v>68</v>
+        <v>75.5</v>
       </c>
       <c r="E39" s="4">
-        <v>97.5</v>
+        <v>60.5</v>
       </c>
       <c r="F39" s="4">
-        <v>61</v>
+        <v>85</v>
       </c>
       <c r="G39" s="4">
         <v>57</v>
       </c>
       <c r="H39" s="4">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="I39" s="4">
-        <v>85</v>
+        <v>83.5</v>
       </c>
       <c r="J39" s="6"/>
       <c r="K39" s="7"/>
@@ -2159,31 +2159,31 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="4">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C40" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D40" s="5">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E40" s="4">
-        <v>71</v>
+        <v>63.5</v>
       </c>
       <c r="F40" s="4">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G40" s="4">
-        <v>60.5</v>
+        <v>81</v>
       </c>
       <c r="H40" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="I40" s="4">
-        <v>85</v>
+        <v>62</v>
       </c>
       <c r="J40" s="6"/>
       <c r="K40" s="7"/>
@@ -2196,31 +2196,31 @@
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="4">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C41" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D41" s="5">
-        <v>75.5</v>
+        <v>81</v>
       </c>
       <c r="E41" s="4">
-        <v>60.5</v>
+        <v>55.5</v>
       </c>
       <c r="F41" s="4">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="G41" s="4">
-        <v>57</v>
+        <v>91.5</v>
       </c>
       <c r="H41" s="4">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="I41" s="4">
-        <v>83.5</v>
+        <v>59</v>
       </c>
       <c r="J41" s="6"/>
       <c r="K41" s="7"/>
@@ -2233,31 +2233,31 @@
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="4">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D42" s="5">
-        <v>76</v>
+        <v>85.5</v>
       </c>
       <c r="E42" s="4">
-        <v>63.5</v>
+        <v>64.5</v>
       </c>
       <c r="F42" s="4">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="G42" s="4">
-        <v>81</v>
+        <v>78.5</v>
       </c>
       <c r="H42" s="4">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I42" s="4">
-        <v>62</v>
+        <v>76.5</v>
       </c>
       <c r="J42" s="6"/>
       <c r="K42" s="7"/>
@@ -2270,31 +2270,31 @@
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="4">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C43" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="5">
-        <v>81</v>
+        <v>86.5</v>
       </c>
       <c r="E43" s="4">
-        <v>55.5</v>
+        <v>65.5</v>
       </c>
       <c r="F43" s="4">
-        <v>61</v>
+        <v>67.5</v>
       </c>
       <c r="G43" s="4">
-        <v>91.5</v>
+        <v>70.5</v>
       </c>
       <c r="H43" s="4">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="I43" s="4">
-        <v>59</v>
+        <v>73.5</v>
       </c>
       <c r="J43" s="6"/>
       <c r="K43" s="7"/>
@@ -2307,31 +2307,31 @@
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="4">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="5">
-        <v>86.5</v>
+        <v>94</v>
       </c>
       <c r="E44" s="4">
-        <v>65.5</v>
+        <v>68.5</v>
       </c>
       <c r="F44" s="4">
-        <v>67.5</v>
+        <v>78</v>
       </c>
       <c r="G44" s="4">
-        <v>70.5</v>
+        <v>60.5</v>
       </c>
       <c r="H44" s="4">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="I44" s="4">
-        <v>73.5</v>
+        <v>67</v>
       </c>
       <c r="J44" s="6"/>
       <c r="K44" s="7"/>
@@ -2344,31 +2344,31 @@
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="4">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="D45" s="5">
-        <v>94</v>
+        <v>96.5</v>
       </c>
       <c r="E45" s="4">
-        <v>68.5</v>
+        <v>74.5</v>
       </c>
       <c r="F45" s="4">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="G45" s="4">
-        <v>60.5</v>
+        <v>66</v>
       </c>
       <c r="H45" s="4">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I45" s="4">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J45" s="6"/>
       <c r="K45" s="7"/>
@@ -2380,6 +2380,9 @@
       <c r="Q45" s="2"/>
     </row>
   </sheetData>
+  <sortState ref="A2:L45">
+    <sortCondition ref="A5"/>
+  </sortState>
   <mergeCells count="1">
     <mergeCell ref="N2:Q13"/>
   </mergeCells>
